--- a/Documentation/Class_Diagrams.xlsx
+++ b/Documentation/Class_Diagrams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14280" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Weapon</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Human</t>
   </si>
   <si>
-    <t>Light_Demon</t>
-  </si>
-  <si>
     <t>Priest</t>
   </si>
   <si>
@@ -204,6 +201,48 @@
   </si>
   <si>
     <t>attack()</t>
+  </si>
+  <si>
+    <t>Melee Weapon</t>
+  </si>
+  <si>
+    <t>Other Model</t>
+  </si>
+  <si>
+    <t>Rifle Ammo Model</t>
+  </si>
+  <si>
+    <t>Pistol Ammo Model</t>
+  </si>
+  <si>
+    <t>Note Model</t>
+  </si>
+  <si>
+    <t>Audio Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various Collectible </t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>move()</t>
+  </si>
+  <si>
+    <t>Heavy Demon</t>
+  </si>
+  <si>
+    <t>Light Demon</t>
+  </si>
+  <si>
+    <t>changeWeapon()</t>
+  </si>
+  <si>
+    <t>Pause()...</t>
+  </si>
+  <si>
+    <t>has_X...</t>
   </si>
 </sst>
 </file>
@@ -340,8 +379,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -443,7 +492,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -479,6 +528,11 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -514,6 +568,11 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -686,6 +745,100 @@
         <a:xfrm>
           <a:off x="3784600" y="4660900"/>
           <a:ext cx="12700" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7632700" y="4648200"/>
+          <a:ext cx="0" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039100" y="4648200"/>
+          <a:ext cx="1663700" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1589,6 +1742,100 @@
         <a:xfrm>
           <a:off x="3314700" y="7048500"/>
           <a:ext cx="1955800" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5207000" y="7023100"/>
+          <a:ext cx="2120900" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3276600" y="7035800"/>
+          <a:ext cx="4089400" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1942,7 +2189,7 @@
   <dimension ref="B3:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1954,6 +2201,7 @@
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:12">
@@ -2111,7 +2359,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2210,9 +2458,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2253,9 +2499,13 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
@@ -2265,9 +2515,9 @@
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
@@ -2277,9 +2527,9 @@
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
@@ -2289,9 +2539,9 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
@@ -2301,9 +2551,9 @@
       <c r="D28" s="4"/>
       <c r="E28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
@@ -2313,9 +2563,9 @@
       <c r="D29" s="2"/>
       <c r="E29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
@@ -2325,9 +2575,9 @@
       <c r="D30" s="2"/>
       <c r="E30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2341,9 +2591,13 @@
       </c>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
@@ -2353,9 +2607,9 @@
       <c r="D32" s="3"/>
       <c r="E32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
@@ -2469,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2809,13 +3063,19 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="4"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="4"/>
       <c r="K31" s="1"/>
@@ -2828,7 +3088,9 @@
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
@@ -2935,9 +3197,13 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="F41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
@@ -2964,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3010,7 +3276,9 @@
     <row r="5" spans="3:12">
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>38</v>
       </c>
@@ -3061,7 +3329,7 @@
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3071,7 +3339,7 @@
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3081,7 +3349,7 @@
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3124,7 +3392,7 @@
       <c r="E16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3175,7 +3443,7 @@
       <c r="E21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3201,15 +3469,15 @@
     </row>
     <row r="24" spans="2:12" ht="16" thickBot="1">
       <c r="B24" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>26</v>
@@ -3233,7 +3501,9 @@
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="2"/>
@@ -3245,7 +3515,9 @@
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="2"/>
@@ -3257,7 +3529,9 @@
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="4"/>
@@ -3269,7 +3543,9 @@
       <c r="I28" s="1"/>
       <c r="J28" s="4"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="2"/>
@@ -3294,7 +3570,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="1"/>
       <c r="L30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -3306,11 +3582,11 @@
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -3324,7 +3600,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
       <c r="L32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="50" customHeight="1">
@@ -3340,52 +3616,58 @@
     </row>
     <row r="34" spans="2:12" ht="16" thickBot="1">
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E34" s="1"/>
+      <c r="F34" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="H34" s="8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12">
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="2:12">
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="2:12">
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
     </row>
     <row r="38" spans="2:12">
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="1"/>
+      <c r="F38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="1"/>
       <c r="J38" s="4"/>
@@ -3394,8 +3676,9 @@
     </row>
     <row r="39" spans="2:12">
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
@@ -3403,6 +3686,8 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="2:12">
+      <c r="D40" s="7"/>
+      <c r="F40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="1"/>
       <c r="J40" s="7"/>
@@ -3410,6 +3695,8 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="2:12">
+      <c r="D41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
@@ -3417,6 +3704,8 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="2:12">
+      <c r="D42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="1"/>
       <c r="J42" s="3"/>
